--- a/VZ.xlsx
+++ b/VZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192514A-89D0-4AE6-B149-4B985AF340FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F923F-858C-4EB6-83D3-E7FFFBC3C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="225" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{EE8EC31E-92BF-4988-AF8F-23431ADD3368}"/>
+    <workbookView xWindow="-28050" yWindow="1380" windowWidth="28035" windowHeight="18975" activeTab="1" xr2:uid="{EE8EC31E-92BF-4988-AF8F-23431ADD3368}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Price</t>
   </si>
@@ -133,13 +133,88 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>4/2/2035 5.25%</t>
+  </si>
+  <si>
+    <t>US Treasury</t>
+  </si>
+  <si>
+    <t>2/15/2035 4.625%</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>Verizon Equity</t>
+  </si>
+  <si>
+    <t>Verizon Bond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -150,6 +225,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -171,10 +253,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,12 +277,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DB703F2D-768C-46D7-8185-7F3B91A8F2FD}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,73 +601,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AAAFC-19A0-483F-8699-3EDDA2329883}">
-  <dimension ref="L2:N7"/>
+  <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="6:14" x14ac:dyDescent="0.2">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="6:14" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>4199.8817447000001</v>
+        <v>4223</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="6:14" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>155395.62455390001</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>190035</v>
+      </c>
+    </row>
+    <row r="5" spans="6:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>2082+1083</f>
-        <v>3165</v>
+        <v>4194</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="12">
+        <f>+M9</f>
+        <v>6.0632702247957436E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>14995+132912</f>
-        <v>147907</v>
+        <f>121381+22633</f>
+        <v>144014</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5.1389999999999998E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>300137.62455389998</v>
+        <v>329855</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4.6249999999999999E-2</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="H9" s="12"/>
+      <c r="M9" s="10">
+        <f>+M8/M7</f>
+        <v>6.0632702247957436E-2</v>
       </c>
     </row>
   </sheetData>
@@ -584,13 +714,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C139EA4F-4C34-4A37-A937-7588FDD490FB}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,12 +730,12 @@
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -642,8 +772,107 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AB2" si="0">+Z2-1</f>
+        <v>2005</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="AB2">
+        <f>+AC2-1</f>
+        <v>2008</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AF2" si="1">+AD2-1</f>
+        <v>2009</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="AF2">
+        <f>+AG2-1</f>
+        <v>2012</v>
+      </c>
+      <c r="AG2">
+        <f>+AH2-1</f>
+        <v>2013</v>
+      </c>
+      <c r="AH2">
+        <f>+AI2-1</f>
+        <v>2014</v>
+      </c>
+      <c r="AI2">
+        <f>+AJ2-1</f>
+        <v>2015</v>
+      </c>
+      <c r="AJ2">
+        <v>2016</v>
+      </c>
+      <c r="AK2">
+        <v>2017</v>
+      </c>
+      <c r="AL2">
+        <v>2018</v>
+      </c>
+      <c r="AM2">
+        <v>2019</v>
+      </c>
+      <c r="AN2">
+        <v>2020</v>
+      </c>
+      <c r="AO2">
+        <f>+AN2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AP2">
+        <f>+AO2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AQ2">
+        <f>+AP2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AR2">
+        <f>+AQ2+1</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -663,8 +892,32 @@
         <v>27666</v>
       </c>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK3" s="2">
+        <v>107145</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>108605</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>110305</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>109872</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>110449</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>109625</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>109652</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>111571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -684,8 +937,32 @@
         <v>6575</v>
       </c>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK4" s="2">
+        <v>18889</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>22258</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>21563</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>18420</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>23164</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>27210</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>24322</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>23217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -707,8 +984,76 @@
         <v>34241</v>
       </c>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="6">
+        <v>88182</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>93469</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>97354</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>107808</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>107808</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>106565</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>110875</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>115846</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>120550</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>127079</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>131620</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>125980</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="shared" ref="AK5" si="2">+AK4+AK3</f>
+        <v>126034</v>
+      </c>
+      <c r="AL5" s="6">
+        <f t="shared" ref="AL5" si="3">+AL4+AL3</f>
+        <v>130863</v>
+      </c>
+      <c r="AM5" s="6">
+        <f t="shared" ref="AM5:AN5" si="4">+AM4+AM3</f>
+        <v>131868</v>
+      </c>
+      <c r="AN5" s="6">
+        <f t="shared" si="4"/>
+        <v>128292</v>
+      </c>
+      <c r="AO5" s="6">
+        <f>+AO4+AO3</f>
+        <v>133613</v>
+      </c>
+      <c r="AP5" s="6">
+        <f>+AP4+AP3</f>
+        <v>136835</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f>+AQ4+AQ3</f>
+        <v>133974</v>
+      </c>
+      <c r="AR5" s="6">
+        <f>+AR4+AR3</f>
+        <v>134788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -730,8 +1075,40 @@
         <v>14601</v>
       </c>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK6" s="2">
+        <f>30916+22147</f>
+        <v>53063</v>
+      </c>
+      <c r="AL6" s="2">
+        <f>32185+23323</f>
+        <v>55508</v>
+      </c>
+      <c r="AM6" s="2">
+        <f>31772+22954</f>
+        <v>54726</v>
+      </c>
+      <c r="AN6" s="2">
+        <f>31401+19800</f>
+        <v>51201</v>
+      </c>
+      <c r="AO6" s="2">
+        <f>31234+25067</f>
+        <v>56301</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>28637+30496</f>
+        <v>59133</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>28100+26787</f>
+        <v>54887</v>
+      </c>
+      <c r="AR6" s="2">
+        <f>27997+26100</f>
+        <v>54097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -753,8 +1130,40 @@
         <v>19640</v>
       </c>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK7" s="2">
+        <f t="shared" ref="AK7" si="5">+AK5-AK6</f>
+        <v>72971</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" ref="AL7" si="6">+AL5-AL6</f>
+        <v>75355</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" ref="AM7:AN7" si="7">+AM5-AM6</f>
+        <v>77142</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="7"/>
+        <v>77091</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>+AO5-AO6</f>
+        <v>77312</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>+AP5-AP6</f>
+        <v>77702</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>+AQ5-AQ6</f>
+        <v>79087</v>
+      </c>
+      <c r="AR7" s="2">
+        <f>+AR5-AR6</f>
+        <v>80691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -774,8 +1183,32 @@
         <v>7422</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK8" s="2">
+        <v>28592</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>31083</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>29896</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>31573</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>28658</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>30136</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>32745</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -797,8 +1230,40 @@
         <v>12218</v>
       </c>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK9" s="2">
+        <f t="shared" ref="AK9" si="8">+AK7-AK8</f>
+        <v>44379</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" ref="AL9" si="9">+AL7-AL8</f>
+        <v>44272</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" ref="AM9:AN9" si="10">+AM7-AM8</f>
+        <v>47246</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="10"/>
+        <v>45518</v>
+      </c>
+      <c r="AO9" s="2">
+        <f>+AO7-AO8</f>
+        <v>48654</v>
+      </c>
+      <c r="AP9" s="2">
+        <f>+AP7-AP8</f>
+        <v>47566</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f>+AQ7-AQ8</f>
+        <v>46342</v>
+      </c>
+      <c r="AR9" s="2">
+        <f>+AR7-AR8</f>
+        <v>46578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -820,8 +1285,35 @@
         <v>-1374</v>
       </c>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK10" s="2">
+        <v>-4733</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>-4833</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>-4730</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>-4247</v>
+      </c>
+      <c r="AO10" s="2">
+        <f>-3485+312</f>
+        <v>-3173</v>
+      </c>
+      <c r="AP10" s="2">
+        <f>-3613+1373</f>
+        <v>-2240</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>-5524</v>
+      </c>
+      <c r="AR10" s="2">
+        <f>-6649+995</f>
+        <v>-5654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -843,8 +1335,40 @@
         <v>10844</v>
       </c>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK11" s="2">
+        <f t="shared" ref="AK11" si="11">+AK9+AK10</f>
+        <v>39646</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" ref="AL11" si="12">+AL9+AL10</f>
+        <v>39439</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" ref="AM11:AN11" si="13">+AM9+AM10</f>
+        <v>42516</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="13"/>
+        <v>41271</v>
+      </c>
+      <c r="AO11" s="2">
+        <f>+AO9+AO10</f>
+        <v>45481</v>
+      </c>
+      <c r="AP11" s="2">
+        <f>+AP9+AP10</f>
+        <v>45326</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f>+AQ9+AQ10</f>
+        <v>40818</v>
+      </c>
+      <c r="AR11" s="2">
+        <f>+AR9+AR10</f>
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -866,8 +1390,32 @@
         <v>1620</v>
       </c>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>3584</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>2945</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>5619</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>6802</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>6523</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>4892</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -889,8 +1437,40 @@
         <v>9224</v>
       </c>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="AK13" s="2">
+        <f t="shared" ref="AK13" si="14">+AK11-AK12</f>
+        <v>39646</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" ref="AL13" si="15">+AL11-AL12</f>
+        <v>35855</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" ref="AM13:AN13" si="16">+AM11-AM12</f>
+        <v>39571</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="16"/>
+        <v>35652</v>
+      </c>
+      <c r="AO13" s="2">
+        <f>+AO11-AO12</f>
+        <v>38679</v>
+      </c>
+      <c r="AP13" s="2">
+        <f>+AP11-AP12</f>
+        <v>38803</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f>+AQ11-AQ12</f>
+        <v>35926</v>
+      </c>
+      <c r="AR13" s="2">
+        <f>+AR11-AR12</f>
+        <v>35894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -902,8 +1482,40 @@
         <f>+M13/M15</f>
         <v>2.1941008563273074</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="AK14" s="1">
+        <f t="shared" ref="AK14" si="17">+AK13/AK15</f>
+        <v>9.6957691367082415</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" ref="AL14" si="18">+AL13/AL15</f>
+        <v>8.6773959341723135</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" ref="AM14:AN14" si="19">+AM13/AM15</f>
+        <v>9.5582125603864743</v>
+      </c>
+      <c r="AN14" s="1">
+        <f t="shared" si="19"/>
+        <v>8.6074360212457748</v>
+      </c>
+      <c r="AO14" s="1">
+        <f>+AO13/AO15</f>
+        <v>9.3202409638554222</v>
+      </c>
+      <c r="AP14" s="1">
+        <f>+AP13/AP15</f>
+        <v>9.2300190294957183</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f>+AQ13/AQ15</f>
+        <v>8.5233689205219463</v>
+      </c>
+      <c r="AR14" s="1">
+        <f>+AR13/AR15</f>
+        <v>8.4996448022732647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -913,11 +1525,35 @@
       <c r="M15" s="5">
         <v>4204</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="AK15" s="2">
+        <v>4089</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>4132</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>4140</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>4142</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>4150</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>4204</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>4215</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
@@ -925,8 +1561,451 @@
         <f>M5/I5-1</f>
         <v>4.0285584080206549E-2</v>
       </c>
+      <c r="Z17" s="10">
+        <f t="shared" ref="Z17:AE17" si="20">+Z5/Y5-1</f>
+        <v>5.9955546483409394E-2</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" si="20"/>
+        <v>4.1564582909841663E-2</v>
+      </c>
+      <c r="AB17" s="10">
+        <f t="shared" si="20"/>
+        <v>0.10738130944799384</v>
+      </c>
+      <c r="AC17" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
+        <f t="shared" si="20"/>
+        <v>-1.1529756604333641E-2</v>
+      </c>
+      <c r="AE17" s="10">
+        <f t="shared" ref="AD17:AH17" si="21">+AE5/AD5-1</f>
+        <v>4.0444798948998217E-2</v>
+      </c>
+      <c r="AF17" s="10">
+        <f t="shared" si="21"/>
+        <v>4.4834272829763266E-2</v>
+      </c>
+      <c r="AG17" s="10">
+        <f t="shared" si="21"/>
+        <v>4.0605631614384574E-2</v>
+      </c>
+      <c r="AH17" s="10">
+        <f t="shared" ref="AH17:AL17" si="22">+AH5/AG5-1</f>
+        <v>5.4160099543757667E-2</v>
+      </c>
+      <c r="AI17" s="10">
+        <f t="shared" si="22"/>
+        <v>3.5733677476215586E-2</v>
+      </c>
+      <c r="AJ17" s="10">
+        <f t="shared" si="22"/>
+        <v>-4.2850630603251783E-2</v>
+      </c>
+      <c r="AK17" s="10">
+        <f t="shared" si="22"/>
+        <v>4.2863946658200369E-4</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="22"/>
+        <v>3.8315057841534772E-2</v>
+      </c>
+      <c r="AM17" s="10">
+        <f t="shared" ref="AM17:AO17" si="23">+AM5/AL5-1</f>
+        <v>7.6797872584306592E-3</v>
+      </c>
+      <c r="AN17" s="10">
+        <f t="shared" si="23"/>
+        <v>-2.7118027118027133E-2</v>
+      </c>
+      <c r="AO17" s="10">
+        <f t="shared" si="23"/>
+        <v>4.1475696068344003E-2</v>
+      </c>
+      <c r="AP17" s="10">
+        <f>+AP5/AO5-1</f>
+        <v>2.4114420004041515E-2</v>
+      </c>
+      <c r="AQ17" s="10">
+        <f>+AQ5/AP5-1</f>
+        <v>-2.090839332042238E-2</v>
+      </c>
+      <c r="AR17" s="10">
+        <f>+AR5/AQ5-1</f>
+        <v>6.0758057533552012E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="AB19" s="2">
+        <v>27452</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>31390</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>33363</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>29780</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>31486</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>38818</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>30631</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>38930</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>22715</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>24318</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>34339</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>35746</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>41768</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>39539</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>37141</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>37475</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>36912</v>
+      </c>
+    </row>
+    <row r="20" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="AB20" s="2">
+        <v>17133</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>16872</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>16458</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>16244</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>16175</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>16604</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>17191</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>17775</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>17059</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>17247</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>16658</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>17939</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>18192</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>20286</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>23087</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>18767</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>17090</v>
+      </c>
+    </row>
+    <row r="21" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="AB21" s="2">
+        <f t="shared" ref="AB21:AE21" si="24">+AB19-AB20</f>
+        <v>10319</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="24"/>
+        <v>14518</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="24"/>
+        <v>16905</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="24"/>
+        <v>13536</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" ref="AF21" si="25">+AF19-AF20</f>
+        <v>15311</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" ref="AG21" si="26">+AG19-AG20</f>
+        <v>22214</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" ref="AH21:AJ21" si="27">+AH19-AH20</f>
+        <v>13440</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="27"/>
+        <v>21155</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="27"/>
+        <v>5656</v>
+      </c>
+      <c r="AK21" s="2">
+        <f>+AK19-AK20</f>
+        <v>7071</v>
+      </c>
+      <c r="AL21" s="2">
+        <f>+AL19-AL20</f>
+        <v>17681</v>
+      </c>
+      <c r="AM21" s="2">
+        <f>+AM19-AM20</f>
+        <v>17807</v>
+      </c>
+      <c r="AN21" s="2">
+        <f>+AN19-AN20</f>
+        <v>23576</v>
+      </c>
+      <c r="AO21" s="2">
+        <f>+AO19-AO20</f>
+        <v>19253</v>
+      </c>
+      <c r="AP21" s="2">
+        <f>+AP19-AP20</f>
+        <v>14054</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f>+AQ19-AQ20</f>
+        <v>18708</v>
+      </c>
+      <c r="AR21" s="2">
+        <f>+AR19-AR20</f>
+        <v>19822</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="AR24" s="2">
+        <f>4194+842</f>
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="AR25" s="2">
+        <v>26109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="AR26" s="2">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="AR27" s="2">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="AR28" s="2">
+        <v>108522</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>156613</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR30" s="2">
+        <f>22841+11129</f>
+        <v>33970</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>24472</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR33" s="2">
+        <f>SUM(AR24:AR32)</f>
+        <v>384711</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A2D96C4C-0F3F-4E42-938F-E7ADB3B46062}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>